--- a/NEW HR/DERLA, ARTHUR.xlsx
+++ b/NEW HR/DERLA, ARTHUR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>2/9,11/2023</t>
+  </si>
+  <si>
+    <t>3/7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -3323,9 +3326,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3489,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3496,7 +3499,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>76.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4884,20 +4887,30 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>2</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
@@ -5845,7 +5858,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NEW HR/DERLA, ARTHUR.xlsx
+++ b/NEW HR/DERLA, ARTHUR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -658,15 +658,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -679,11 +670,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,7 +1380,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1423,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1613,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1676,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1774,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1898,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1941,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2202,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2268,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2326,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2392,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2448,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2523,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2566,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2632,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2688,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2786,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2849,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2945,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3325,10 +3325,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A69" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,14 +3358,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3376,16 +3376,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>39069</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3398,14 +3398,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3431,18 +3431,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.75</v>
+        <v>75.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4914,7 +4914,9 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
@@ -4923,10 +4925,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49">
+        <v>45012</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
@@ -5810,17 +5816,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5853,12 +5859,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A33" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5889,14 +5895,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5910,17 +5916,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>39069</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5934,17 +5940,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5970,18 +5976,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6674,10 +6680,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -6688,19 +6694,23 @@
         <v/>
       </c>
       <c r="H38" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="49" t="s">
-        <v>77</v>
+      <c r="K38" s="49">
+        <v>44935</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39">
+        <v>3</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -6710,11 +6720,17 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="49"/>
+      <c r="K39" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
@@ -6723,10 +6739,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="39">
+        <v>2</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="49"/>
+      <c r="K40" s="49" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
@@ -6742,7 +6762,7 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
@@ -6758,7 +6778,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="49"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
@@ -6774,7 +6794,7 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
@@ -6790,7 +6810,7 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
@@ -6806,7 +6826,7 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="49"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
@@ -6822,7 +6842,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="49"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
@@ -6838,12 +6858,10 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="49"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -6859,12 +6877,8 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A49" s="40"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -6873,24 +6887,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39">
-        <v>1</v>
-      </c>
+      <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49">
-        <v>44935</v>
-      </c>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
-      <c r="B50" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="39">
-        <v>3</v>
-      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -6900,9 +6906,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
@@ -8265,196 +8269,20 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="39"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="20"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="39"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="39"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="39"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="39"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="39"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="20"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/DERLA, ARTHUR.xlsx
+++ b/NEW HR/DERLA, ARTHUR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -658,6 +658,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -670,20 +679,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,7 +1380,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1423,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1613,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1676,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1774,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1898,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1941,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2202,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2268,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2326,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2392,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2448,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2523,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2566,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2632,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2688,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2786,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2849,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3328,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,14 +3358,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3376,16 +3376,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>39069</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3398,14 +3398,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3431,18 +3431,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3489,7 +3489,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3499,7 +3499,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>75.75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4935,23 +4935,35 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="A80" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39"/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>45042</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45047</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5816,17 +5828,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5895,14 +5907,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5916,17 +5928,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>39069</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5940,17 +5952,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5976,18 +5988,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DERLA, ARTHUR.xlsx
+++ b/NEW HR/DERLA, ARTHUR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>3/7,8/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
   </si>
 </sst>
 </file>
@@ -658,15 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -679,11 +673,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,7 +1383,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1426,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1490,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1550,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1616,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1679,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1777,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1836,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1901,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1944,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2019,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2205,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2271,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2329,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2395,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2451,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2526,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2569,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2635,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2691,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2918,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K133" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3323,12 +3326,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,14 +3361,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3376,16 +3379,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>39069</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3398,14 +3401,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3431,18 +3436,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4913,17 +4918,21 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39">
         <v>1</v>
@@ -4931,25 +4940,23 @@
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="49">
-        <v>45012</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39">
         <v>1</v>
@@ -4957,13 +4964,11 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="49">
-        <v>45042</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5795,50 +5800,34 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5876,7 +5865,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5907,14 +5896,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5928,17 +5917,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>39069</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5952,17 +5941,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="51"/>
+        <v>CENRO</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5988,18 +5977,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6056,7 +6045,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.7420000000000009</v>
+        <v>0.74200000000000088</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6761,8 +6750,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
@@ -6771,10 +6764,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <v>1</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="49">
+        <v>45012</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>

--- a/NEW HR/DERLA, ARTHUR.xlsx
+++ b/NEW HR/DERLA, ARTHUR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D3674-D7C1-4A8D-B8D6-50151C02AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -278,11 +279,14 @@
   <si>
     <t>CENRO</t>
   </si>
+  <si>
+    <t>6/30, 7/1/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -661,6 +665,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,20 +686,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,7 +1387,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1430,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1494,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1554,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1620,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1683,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1781,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1840,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1905,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1948,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2023,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2209,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2275,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2333,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2399,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2455,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2530,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2573,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2639,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2695,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2793,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2856,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2905,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2918,25 +2922,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K133" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K133" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2948,25 +2952,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2978,13 +2982,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2993,14 +2997,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3304,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3314,7 +3318,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3322,34 +3326,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3361,16 +3365,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3379,18 +3383,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>39069</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3401,18 +3405,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3420,7 +3424,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3433,24 +3437,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3494,7 +3498,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3504,12 +3508,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76</v>
+        <v>76.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3531,7 +3535,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3551,7 +3555,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3571,7 +3575,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3591,7 +3595,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3631,7 +3635,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3691,7 +3695,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3711,7 +3715,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3731,7 +3735,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3751,7 +3755,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3775,7 +3779,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3793,7 +3797,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3813,7 +3817,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3833,7 +3837,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3853,7 +3857,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3873,7 +3877,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3919,7 +3923,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3939,7 +3943,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3959,7 +3963,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3979,7 +3983,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3999,7 +4003,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4019,7 +4023,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4039,7 +4043,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4057,7 +4061,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4077,7 +4081,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4097,7 +4101,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4117,7 +4121,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4137,7 +4141,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4177,7 +4181,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4197,7 +4201,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4217,7 +4221,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4237,7 +4241,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4257,7 +4261,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4277,7 +4281,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4301,7 +4305,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4319,7 +4323,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4339,7 +4343,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4359,7 +4363,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4379,7 +4383,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4399,7 +4403,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4439,7 +4443,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4479,7 +4483,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4499,7 +4503,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4569,7 +4573,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4587,7 +4591,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4607,7 +4611,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4627,7 +4631,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4647,7 +4651,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4667,7 +4671,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4687,7 +4691,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4707,7 +4711,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4727,7 +4731,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4767,7 +4771,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4787,7 +4791,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4833,7 +4837,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4851,9 +4855,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4871,9 +4875,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4891,9 +4895,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>51</v>
@@ -4917,9 +4921,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>52</v>
@@ -4943,20 +4947,22 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39">
         <v>1</v>
@@ -4967,25 +4973,33 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -4994,13 +5008,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="K82" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5015,8 +5035,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5031,8 +5053,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5047,8 +5071,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5063,8 +5089,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5079,8 +5107,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5095,8 +5125,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5111,8 +5143,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5127,8 +5161,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5143,8 +5179,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5159,7 +5197,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5175,7 +5213,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5191,7 +5229,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5207,7 +5245,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5223,7 +5261,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5239,7 +5277,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5255,7 +5293,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5271,7 +5309,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5287,7 +5325,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5303,7 +5341,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5319,7 +5357,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5335,7 +5373,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5351,7 +5389,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5367,7 +5405,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5383,7 +5421,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5399,7 +5437,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5415,7 +5453,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5431,7 +5469,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5447,7 +5485,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5463,7 +5501,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5479,7 +5517,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5495,7 +5533,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5511,7 +5549,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5527,7 +5565,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5543,7 +5581,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5559,7 +5597,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5575,7 +5613,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5591,7 +5629,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5607,7 +5645,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5623,7 +5661,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5639,7 +5677,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5655,7 +5693,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5671,7 +5709,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5687,7 +5725,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5703,7 +5741,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5719,7 +5757,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5735,7 +5773,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5751,7 +5789,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5767,7 +5805,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5783,7 +5821,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5799,7 +5837,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5817,23 +5855,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5856,34 +5894,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A33" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5896,16 +5934,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5917,19 +5955,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>39069</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5941,19 +5979,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CENRO</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5961,7 +5999,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5974,24 +6012,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6026,7 +6064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6050,7 +6088,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -6072,7 +6110,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6096,7 +6134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43221</v>
       </c>
@@ -6120,7 +6158,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -6142,7 +6180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>55</v>
@@ -6162,7 +6200,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A12,1)</f>
         <v>43252</v>
@@ -6185,7 +6223,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6207,7 +6245,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6229,7 +6267,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6251,7 +6289,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6275,7 +6313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6295,7 +6333,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -6317,7 +6355,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -6339,7 +6377,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -6357,7 +6395,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -6381,7 +6419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -6405,7 +6443,7 @@
         <v>47168</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43678</v>
       </c>
@@ -6429,7 +6467,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43709</v>
       </c>
@@ -6453,7 +6491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43800</v>
       </c>
@@ -6477,7 +6515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>46</v>
       </c>
@@ -6495,7 +6533,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44562</v>
       </c>
@@ -6519,7 +6557,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44713</v>
       </c>
@@ -6543,7 +6581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44743</v>
       </c>
@@ -6567,7 +6605,7 @@
         <v>44758</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44774</v>
       </c>
@@ -6591,7 +6629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44805</v>
       </c>
@@ -6615,7 +6653,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44835</v>
       </c>
@@ -6637,7 +6675,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44866</v>
       </c>
@@ -6661,7 +6699,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>47</v>
       </c>
@@ -6679,7 +6717,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44927</v>
       </c>
@@ -6703,7 +6741,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>71</v>
@@ -6725,7 +6763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44958</v>
       </c>
@@ -6749,7 +6787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44986</v>
       </c>
@@ -6773,7 +6811,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6789,7 +6827,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6805,7 +6843,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6821,7 +6859,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6837,7 +6875,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6853,7 +6891,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6869,7 +6907,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6885,7 +6923,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6901,7 +6939,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6917,7 +6955,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6933,7 +6971,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6949,7 +6987,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6965,7 +7003,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6981,7 +7019,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6997,7 +7035,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7013,7 +7051,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7029,7 +7067,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7045,7 +7083,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7061,7 +7099,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7077,7 +7115,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7093,7 +7131,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7109,7 +7147,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7125,7 +7163,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7141,7 +7179,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7157,7 +7195,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7173,7 +7211,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7189,7 +7227,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7205,7 +7243,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7221,7 +7259,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7237,7 +7275,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7253,7 +7291,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7269,7 +7307,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7285,7 +7323,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7301,7 +7339,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7317,7 +7355,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7333,7 +7371,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7349,7 +7387,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7365,7 +7403,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7381,7 +7419,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7397,7 +7435,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7413,7 +7451,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7429,7 +7467,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7445,7 +7483,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7461,7 +7499,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7477,7 +7515,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7493,7 +7531,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7509,7 +7547,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7525,7 +7563,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7541,7 +7579,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7557,7 +7595,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7573,7 +7611,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7589,7 +7627,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7605,7 +7643,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7621,7 +7659,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7637,7 +7675,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7653,7 +7691,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7669,7 +7707,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7685,7 +7723,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7701,7 +7739,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7717,7 +7755,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7733,7 +7771,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7749,7 +7787,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7765,7 +7803,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7781,7 +7819,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7797,7 +7835,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7813,7 +7851,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7829,7 +7867,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7845,7 +7883,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7861,7 +7899,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7877,7 +7915,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7893,7 +7931,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7909,7 +7947,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7925,7 +7963,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7941,7 +7979,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7957,7 +7995,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7973,7 +8011,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7989,7 +8027,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8005,7 +8043,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8021,7 +8059,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8037,7 +8075,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8053,7 +8091,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8069,7 +8107,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8085,7 +8123,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8101,7 +8139,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8117,7 +8155,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8133,7 +8171,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8149,7 +8187,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8165,7 +8203,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8181,7 +8219,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8197,7 +8235,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8213,7 +8251,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8229,7 +8267,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8245,7 +8283,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8261,7 +8299,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8277,7 +8315,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8308,10 +8346,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8334,7 +8372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8342,21 +8380,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8369,7 +8407,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8398,7 +8436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>99.394999999999996</v>
       </c>
@@ -8426,17 +8464,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8457,7 +8495,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8484,7 +8522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8510,7 +8548,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8536,7 +8574,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8562,7 +8600,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8588,7 +8626,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8614,7 +8652,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8640,7 +8678,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8666,7 +8704,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8686,7 +8724,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8706,7 +8744,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8726,7 +8764,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8747,7 +8785,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8768,7 +8806,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8789,7 +8827,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8810,7 +8848,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8831,7 +8869,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8852,7 +8890,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8873,7 +8911,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8894,7 +8932,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8915,7 +8953,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8936,7 +8974,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8957,7 +8995,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8978,7 +9016,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8999,7 +9037,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9020,7 +9058,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9041,7 +9079,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9062,7 +9100,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9083,7 +9121,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9104,7 +9142,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9125,7 +9163,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9146,7 +9184,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9155,7 +9193,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9164,7 +9202,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9173,7 +9211,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9182,7 +9220,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9191,7 +9229,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9200,7 +9238,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9209,7 +9247,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9218,7 +9256,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9227,7 +9265,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9236,7 +9274,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9245,7 +9283,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9254,7 +9292,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9263,7 +9301,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9272,7 +9310,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9281,7 +9319,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9290,7 +9328,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9299,7 +9337,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9308,7 +9346,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9317,7 +9355,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9326,7 +9364,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9335,7 +9373,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9344,7 +9382,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9353,7 +9391,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9362,7 +9400,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9371,7 +9409,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9380,7 +9418,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9389,7 +9427,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9398,7 +9436,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9407,7 +9445,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DERLA, ARTHUR.xlsx
+++ b/NEW HR/DERLA, ARTHUR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D3674-D7C1-4A8D-B8D6-50151C02AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,11 +281,14 @@
   <si>
     <t>6/30, 7/1/2023</t>
   </si>
+  <si>
+    <t>8/14,22/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -665,15 +667,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -686,11 +679,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,7 +1389,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1432,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1496,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1556,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1622,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1685,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1783,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1842,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1907,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1950,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2025,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2211,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2277,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2335,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2401,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2457,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2532,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2575,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2641,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2697,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2795,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2858,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2907,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2922,25 +2924,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K133" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K133" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2952,25 +2954,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2982,13 +2984,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2997,14 +2999,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3308,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3318,7 +3320,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3326,34 +3328,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3365,16 +3367,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3383,18 +3385,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>39069</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3405,18 +3407,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3424,7 +3426,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3437,24 +3439,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3498,7 +3500,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3508,12 +3510,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.5</v>
+        <v>75.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3535,7 +3537,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3555,7 +3557,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3575,7 +3577,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3615,7 +3617,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3635,7 +3637,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3779,7 +3781,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3797,7 +3799,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3817,7 +3819,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3837,7 +3839,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3857,7 +3859,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3877,7 +3879,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3923,7 +3925,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3943,7 +3945,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3963,7 +3965,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3983,7 +3985,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4003,7 +4005,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4023,7 +4025,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4043,7 +4045,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4061,7 +4063,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4081,7 +4083,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4101,7 +4103,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4121,7 +4123,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4141,7 +4143,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4161,7 +4163,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4181,7 +4183,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4201,7 +4203,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4221,7 +4223,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4241,7 +4243,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4261,7 +4263,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4281,7 +4283,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4305,7 +4307,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4323,7 +4325,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4343,7 +4345,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4363,7 +4365,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4383,7 +4385,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4403,7 +4405,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4423,7 +4425,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4443,7 +4445,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4463,7 +4465,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4483,7 +4485,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4503,7 +4505,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4523,7 +4525,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4573,7 +4575,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4591,7 +4593,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4611,7 +4613,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4631,7 +4633,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4651,7 +4653,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4671,7 +4673,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4691,7 +4693,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4711,7 +4713,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4731,7 +4733,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4751,7 +4753,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4771,7 +4773,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4791,7 +4793,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4837,7 +4839,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4855,7 +4857,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4875,7 +4877,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4895,7 +4897,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4993,20 +4995,22 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39">
         <v>2</v>
@@ -5017,11 +5021,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -5030,12 +5036,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>2</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -5053,7 +5063,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -5071,7 +5081,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -5089,7 +5099,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -5107,7 +5117,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -5125,7 +5135,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -5143,7 +5153,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45382</v>
       </c>
@@ -5161,7 +5171,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45412</v>
       </c>
@@ -5179,7 +5189,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45443</v>
       </c>
@@ -5197,7 +5207,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5213,7 +5223,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5229,7 +5239,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5245,7 +5255,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5261,7 +5271,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5277,7 +5287,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5293,7 +5303,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5309,7 +5319,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5325,7 +5335,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5341,7 +5351,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5357,7 +5367,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5373,7 +5383,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5389,7 +5399,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5405,7 +5415,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5421,7 +5431,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5437,7 +5447,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5453,7 +5463,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5469,7 +5479,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5485,7 +5495,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5501,7 +5511,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5517,7 +5527,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5533,7 +5543,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5549,7 +5559,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5565,7 +5575,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5581,7 +5591,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5597,7 +5607,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5613,7 +5623,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5629,7 +5639,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5645,7 +5655,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5661,7 +5671,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5677,7 +5687,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5693,7 +5703,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5709,7 +5719,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5725,7 +5735,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5741,7 +5751,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5757,7 +5767,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5773,7 +5783,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5789,7 +5799,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5805,7 +5815,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5821,7 +5831,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5837,7 +5847,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5855,23 +5865,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5894,34 +5904,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A36" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5934,16 +5944,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5955,19 +5965,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>39069</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5979,19 +5989,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CENRO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5999,7 +6009,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6012,24 +6022,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6064,7 +6074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6088,7 +6098,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -6110,7 +6120,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6134,7 +6144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43221</v>
       </c>
@@ -6158,7 +6168,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -6180,7 +6190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>55</v>
@@ -6200,7 +6210,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A12,1)</f>
         <v>43252</v>
@@ -6223,7 +6233,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6245,7 +6255,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6267,7 +6277,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6289,7 +6299,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6313,7 +6323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6333,7 +6343,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -6355,7 +6365,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -6377,7 +6387,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -6395,7 +6405,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -6419,7 +6429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -6443,7 +6453,7 @@
         <v>47168</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43678</v>
       </c>
@@ -6467,7 +6477,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43709</v>
       </c>
@@ -6491,7 +6501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43800</v>
       </c>
@@ -6515,7 +6525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>46</v>
       </c>
@@ -6533,7 +6543,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44562</v>
       </c>
@@ -6557,7 +6567,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44713</v>
       </c>
@@ -6581,7 +6591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44743</v>
       </c>
@@ -6605,7 +6615,7 @@
         <v>44758</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44774</v>
       </c>
@@ -6629,7 +6639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44805</v>
       </c>
@@ -6653,7 +6663,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44835</v>
       </c>
@@ -6675,7 +6685,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44866</v>
       </c>
@@ -6699,7 +6709,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>47</v>
       </c>
@@ -6717,7 +6727,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44927</v>
       </c>
@@ -6741,7 +6751,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>71</v>
@@ -6763,7 +6773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44958</v>
       </c>
@@ -6787,7 +6797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44986</v>
       </c>
@@ -6811,7 +6821,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6827,7 +6837,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6843,7 +6853,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6859,7 +6869,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6875,7 +6885,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6891,7 +6901,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6907,7 +6917,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6923,7 +6933,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6939,7 +6949,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6955,7 +6965,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6971,7 +6981,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6987,7 +6997,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7003,7 +7013,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7019,7 +7029,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7035,7 +7045,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7051,7 +7061,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7067,7 +7077,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7083,7 +7093,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7099,7 +7109,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7115,7 +7125,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7131,7 +7141,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7147,7 +7157,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7163,7 +7173,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7179,7 +7189,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7195,7 +7205,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7211,7 +7221,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7227,7 +7237,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7243,7 +7253,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7259,7 +7269,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7275,7 +7285,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7291,7 +7301,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7307,7 +7317,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7323,7 +7333,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7339,7 +7349,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7355,7 +7365,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7371,7 +7381,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7387,7 +7397,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7403,7 +7413,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7419,7 +7429,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7435,7 +7445,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7451,7 +7461,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7467,7 +7477,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7483,7 +7493,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7499,7 +7509,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7515,7 +7525,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7531,7 +7541,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7547,7 +7557,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7563,7 +7573,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7579,7 +7589,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7595,7 +7605,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7611,7 +7621,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7627,7 +7637,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7643,7 +7653,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7659,7 +7669,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7675,7 +7685,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7691,7 +7701,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7707,7 +7717,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7723,7 +7733,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7739,7 +7749,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7755,7 +7765,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7771,7 +7781,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7787,7 +7797,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7803,7 +7813,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7819,7 +7829,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7835,7 +7845,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7851,7 +7861,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7867,7 +7877,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7883,7 +7893,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7899,7 +7909,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7915,7 +7925,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7931,7 +7941,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7947,7 +7957,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7963,7 +7973,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7979,7 +7989,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7995,7 +8005,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8011,7 +8021,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8027,7 +8037,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8043,7 +8053,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8059,7 +8069,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8075,7 +8085,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8091,7 +8101,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8107,7 +8117,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8123,7 +8133,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8139,7 +8149,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8155,7 +8165,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8171,7 +8181,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8187,7 +8197,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8203,7 +8213,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8219,7 +8229,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8235,7 +8245,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8251,7 +8261,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8267,7 +8277,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8283,7 +8293,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8299,7 +8309,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8315,7 +8325,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8346,10 +8356,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8372,7 +8382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8380,21 +8390,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8407,7 +8417,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8436,7 +8446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>99.394999999999996</v>
       </c>
@@ -8464,17 +8474,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8495,7 +8505,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8522,7 +8532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8548,7 +8558,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8574,7 +8584,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8600,7 +8610,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8626,7 +8636,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8652,7 +8662,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8678,7 +8688,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8704,7 +8714,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8724,7 +8734,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8764,7 +8774,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8785,7 +8795,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8806,7 +8816,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8848,7 +8858,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8869,7 +8879,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8890,7 +8900,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8911,7 +8921,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8932,7 +8942,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8953,7 +8963,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8974,7 +8984,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8995,7 +9005,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9016,7 +9026,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9037,7 +9047,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9058,7 +9068,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9079,7 +9089,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9100,7 +9110,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9121,7 +9131,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9142,7 +9152,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9163,7 +9173,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9184,7 +9194,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9193,7 +9203,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9202,7 +9212,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9211,7 +9221,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9220,7 +9230,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9229,7 +9239,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9238,7 +9248,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9247,7 +9257,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9256,7 +9266,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9265,7 +9275,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9274,7 +9284,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9283,7 +9293,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9292,7 +9302,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9301,7 +9311,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9310,7 +9320,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9319,7 +9329,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9328,7 +9338,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9337,7 +9347,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9346,7 +9356,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9355,7 +9365,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9364,7 +9374,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9373,7 +9383,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9382,7 +9392,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9391,7 +9401,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9400,7 +9410,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9409,7 +9419,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9418,7 +9428,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9427,7 +9437,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9436,7 +9446,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9445,7 +9455,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
